--- a/biology/Zoologie/Alpheus_lottini/Alpheus_lottini.xlsx
+++ b/biology/Zoologie/Alpheus_lottini/Alpheus_lottini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alpheus lottini est une espèce de crevettes marines de la famille des Alpheidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette crevette est présente dans les eaux tropicales et subtropicales des océans Pacifique et Indien, au large de l'Afrique du Sud et du golfe de Californie jusqu'à la Colombie[1], de Madagascar, du Mozambique, en mer Rouge, en Polynésie et en Nouvelle-Calédonie[2], à une profondeur située entre 0 et 60 mètres[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette crevette est présente dans les eaux tropicales et subtropicales des océans Pacifique et Indien, au large de l'Afrique du Sud et du golfe de Californie jusqu'à la Colombie, de Madagascar, du Mozambique, en mer Rouge, en Polynésie et en Nouvelle-Calédonie, à une profondeur située entre 0 et 60 mètres. 
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Alpheus lottini Guérin, 1829[3].
-Alpheus lottini a pour synonymes[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Alpheus lottini Guérin, 1829.
+Alpheus lottini a pour synonymes :
 Alpheus laevis Randall, 1840
 Alpheus rouxii Guérin-Méneville, 1857
 Alpheus sublucanus (Forsskål, 1775)
